--- a/ResearchAssistant/resultados/resumenResultadosKmeans+GeneticAlgorithm.xlsx
+++ b/ResearchAssistant/resultados/resumenResultadosKmeans+GeneticAlgorithm.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55AED1-359C-490C-A774-7A2CA9E5009A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="118">
   <si>
     <t>Silhouette score</t>
   </si>
@@ -338,12 +337,48 @@
   </si>
   <si>
     <t>Hospital GUA</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>abs(HIT-HET)</t>
+  </si>
+  <si>
+    <t>0.8521468316176535</t>
+  </si>
+  <si>
+    <t>0.3499562839148952</t>
+  </si>
+  <si>
+    <t>0.5021905477027583</t>
+  </si>
+  <si>
+    <t>0.836153208095137</t>
+  </si>
+  <si>
+    <t>0.32968902472362555</t>
+  </si>
+  <si>
+    <t>0.5064641833715116</t>
+  </si>
+  <si>
+    <t>0.8431562571816223</t>
+  </si>
+  <si>
+    <t>0.30595259671436537</t>
+  </si>
+  <si>
+    <t>0.537203660467257</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,12 +477,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="style1556058778926" xfId="2" xr:uid="{3045AF68-BDF4-4BB4-B14C-7C8391E6E00C}"/>
-    <cellStyle name="style1556058778989" xfId="5" xr:uid="{9F68C056-60D6-4D73-B96A-3780C50C4B3E}"/>
-    <cellStyle name="style1556058781779" xfId="1" xr:uid="{4252A749-013E-4849-8321-1502905554BA}"/>
-    <cellStyle name="style1556058781837" xfId="3" xr:uid="{52417D73-1321-4742-AF33-FEBDADA07AC9}"/>
-    <cellStyle name="style1556058858006" xfId="4" xr:uid="{EED800F2-6CE1-4784-9B73-13B45DED7784}"/>
-    <cellStyle name="style1556058860736" xfId="6" xr:uid="{D7B46298-33C6-43A3-A014-7C95A9A376F5}"/>
+    <cellStyle name="style1556058778926" xfId="2"/>
+    <cellStyle name="style1556058778989" xfId="5"/>
+    <cellStyle name="style1556058781779" xfId="1"/>
+    <cellStyle name="style1556058781837" xfId="3"/>
+    <cellStyle name="style1556058858006" xfId="4"/>
+    <cellStyle name="style1556058860736" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,14 +759,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -752,881 +790,714 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L7" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L8" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O7" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="K10">
+      <c r="K17">
         <v>8</v>
       </c>
-      <c r="N10">
+      <c r="N17">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K19" t="s">
         <v>20</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H21" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K23" t="s">
         <v>7</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K24" t="s">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N19" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J28" t="s">
         <v>34</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="D22">
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="G29">
         <v>11</v>
       </c>
-      <c r="J22">
+      <c r="J29">
         <v>12</v>
       </c>
-      <c r="M22">
+      <c r="M29">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G30" t="s">
         <v>20</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J30" t="s">
         <v>27</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J39" t="s">
         <v>35</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
         <v>29</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
         <v>36</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M35" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G44" t="s">
         <v>43</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="D38">
+      <c r="D45">
         <v>14</v>
       </c>
-      <c r="G38">
+      <c r="G45">
         <v>15</v>
       </c>
-      <c r="J38">
+      <c r="J45">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D46" t="s">
         <v>36</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G46" t="s">
         <v>42</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J46" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
         <v>23</v>
       </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>41</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G57" t="s">
         <v>36</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>35</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G58" t="s">
         <v>38</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G59" t="s">
         <v>41</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
         <v>45</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>49</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G64" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="66" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59">
-        <v>18</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61">
-        <v>12</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62">
-        <v>11</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -1635,13 +1506,13 @@
         <v>58</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>61</v>
@@ -1650,15 +1521,15 @@
         <v>62</v>
       </c>
       <c r="K66">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>57</v>
@@ -1667,13 +1538,13 @@
         <v>58</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>57</v>
@@ -1682,126 +1553,126 @@
         <v>58</v>
       </c>
       <c r="K67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>57</v>
@@ -1810,30 +1681,30 @@
         <v>58</v>
       </c>
       <c r="K71">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E72">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>57</v>
@@ -1842,30 +1713,30 @@
         <v>58</v>
       </c>
       <c r="K72">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>61</v>
@@ -1874,126 +1745,126 @@
         <v>62</v>
       </c>
       <c r="K73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K74">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76">
+        <v>14</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E75">
-        <v>16</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K75">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I76" s="6" t="s">
+      <c r="K76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K76">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E77">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>57</v>
@@ -2002,102 +1873,326 @@
         <v>58</v>
       </c>
       <c r="K77">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82">
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E78">
+      <c r="E85">
         <v>21</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K78">
+      <c r="K85">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="86" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E79">
+      <c r="E86">
         <v>19</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K79">
+      <c r="K86">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="87" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E80">
+      <c r="E87">
         <v>2</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K80">
+      <c r="K87">
         <v>21</v>
       </c>
     </row>
